--- a/va_facility_data_2025-02-20/Lancaster VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lancaster%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Lancaster VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lancaster%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R78e4ccaf21034e1ca337a5194e43c3db"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R05c5cd87cf2f40468d29d95ed2dee713"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R35e696efe254490e9700957ce12d78e9"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R5d003c9706514debb53fdfbbb5e7997d"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd35aef7a1661491baa3587e31c8fa2f0"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf7a8a256ad114367b69832ca4555d951"/>
   </x:sheets>
 </x:workbook>
 </file>
